--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4025.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4025.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.803856520590646</v>
+        <v>4.624187469482422</v>
       </c>
       <c r="B1">
-        <v>2.498355468804407</v>
+        <v>6.111722946166992</v>
       </c>
       <c r="C1">
-        <v>2.748717714365941</v>
+        <v>8.243190765380859</v>
       </c>
       <c r="D1">
-        <v>3.234060235381076</v>
+        <v>6.976041793823242</v>
       </c>
       <c r="E1">
-        <v>2.292276334799368</v>
+        <v>2.628762245178223</v>
       </c>
     </row>
   </sheetData>
